--- a/ecos_summary_table.xlsx
+++ b/ecos_summary_table.xlsx
@@ -1,31 +1,619 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E82EBD-1BA5-4F25-A7A7-D5A6FDA3CDD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Scenes" sheetId="1" r:id="rId1"/>
-    <sheet name="Object" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Glossary" sheetId="3" r:id="rId1"/>
+    <sheet name="Scenes" sheetId="1" r:id="rId2"/>
+    <sheet name="Object" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="193">
   <si>
     <t>filename</t>
+  </si>
+  <si>
+    <t>natural?</t>
+  </si>
+  <si>
+    <t>11.jpeg</t>
+  </si>
+  <si>
+    <t>110.jpeg</t>
+  </si>
+  <si>
+    <t>12.jpeg</t>
+  </si>
+  <si>
+    <t>13.jpeg</t>
+  </si>
+  <si>
+    <t>14.jpeg</t>
+  </si>
+  <si>
+    <t>15.jpeg</t>
+  </si>
+  <si>
+    <t>16.jpeg</t>
+  </si>
+  <si>
+    <t>17.jpeg</t>
+  </si>
+  <si>
+    <t>18.jpeg</t>
+  </si>
+  <si>
+    <t>19.jpeg</t>
+  </si>
+  <si>
+    <t>21.jpeg</t>
+  </si>
+  <si>
+    <t>210.jpeg</t>
+  </si>
+  <si>
+    <t>22.jpeg</t>
+  </si>
+  <si>
+    <t>23.jpeg</t>
+  </si>
+  <si>
+    <t>24.jpeg</t>
+  </si>
+  <si>
+    <t>25.jpeg</t>
+  </si>
+  <si>
+    <t>26.jpeg</t>
+  </si>
+  <si>
+    <t>27.jpeg</t>
+  </si>
+  <si>
+    <t>28.jpeg</t>
+  </si>
+  <si>
+    <t>29.jpeg</t>
+  </si>
+  <si>
+    <t>31.jpeg</t>
+  </si>
+  <si>
+    <t>310.jpeg</t>
+  </si>
+  <si>
+    <t>311.jpeg</t>
+  </si>
+  <si>
+    <t>32.jpeg</t>
+  </si>
+  <si>
+    <t>33.jpeg</t>
+  </si>
+  <si>
+    <t>34.jpeg</t>
+  </si>
+  <si>
+    <t>35.jpeg</t>
+  </si>
+  <si>
+    <t>36.jpeg</t>
+  </si>
+  <si>
+    <t>37.jpeg</t>
+  </si>
+  <si>
+    <t>38.jpeg</t>
+  </si>
+  <si>
+    <t>39.jpeg</t>
+  </si>
+  <si>
+    <t>40.jpeg</t>
+  </si>
+  <si>
+    <t>41.jpeg</t>
+  </si>
+  <si>
+    <t>42.jpeg</t>
+  </si>
+  <si>
+    <t>43.jpeg</t>
+  </si>
+  <si>
+    <t>44.jpeg</t>
+  </si>
+  <si>
+    <t>45.jpeg</t>
+  </si>
+  <si>
+    <t>46.jpeg</t>
+  </si>
+  <si>
+    <t>47.jpeg</t>
+  </si>
+  <si>
+    <t>48.jpeg</t>
+  </si>
+  <si>
+    <t>49.jpeg</t>
+  </si>
+  <si>
+    <t>50.jpeg</t>
+  </si>
+  <si>
+    <t>51.jpeg</t>
+  </si>
+  <si>
+    <t>510.jpeg</t>
+  </si>
+  <si>
+    <t>52.jpeg</t>
+  </si>
+  <si>
+    <t>53.jpeg</t>
+  </si>
+  <si>
+    <t>54.jpeg</t>
+  </si>
+  <si>
+    <t>55.jpeg</t>
+  </si>
+  <si>
+    <t>56.jpeg</t>
+  </si>
+  <si>
+    <t>57.jpeg</t>
+  </si>
+  <si>
+    <t>58.jpeg</t>
+  </si>
+  <si>
+    <t>59.jpeg</t>
+  </si>
+  <si>
+    <t>61.jpeg</t>
+  </si>
+  <si>
+    <t>610.jpeg</t>
+  </si>
+  <si>
+    <t>62.jpeg</t>
+  </si>
+  <si>
+    <t>63.jpeg</t>
+  </si>
+  <si>
+    <t>64.jpeg</t>
+  </si>
+  <si>
+    <t>65.jpeg</t>
+  </si>
+  <si>
+    <t>66.jpeg</t>
+  </si>
+  <si>
+    <t>67.jpeg</t>
+  </si>
+  <si>
+    <t>68.jpeg</t>
+  </si>
+  <si>
+    <t>69.jpeg</t>
+  </si>
+  <si>
+    <t>71.jpeg</t>
+  </si>
+  <si>
+    <t>710.jpeg</t>
+  </si>
+  <si>
+    <t>711.jpeg</t>
+  </si>
+  <si>
+    <t>72.jpeg</t>
+  </si>
+  <si>
+    <t>73.jpeg</t>
+  </si>
+  <si>
+    <t>74.jpeg</t>
+  </si>
+  <si>
+    <t>75.jpeg</t>
+  </si>
+  <si>
+    <t>76.jpeg</t>
+  </si>
+  <si>
+    <t>77.jpeg</t>
+  </si>
+  <si>
+    <t>78.jpeg</t>
+  </si>
+  <si>
+    <t>79.jpeg</t>
+  </si>
+  <si>
+    <t>names.txt</t>
+  </si>
+  <si>
+    <t>folder</t>
+  </si>
+  <si>
+    <t>scenes</t>
+  </si>
+  <si>
+    <t>category_num</t>
+  </si>
+  <si>
+    <t>Scenes</t>
+  </si>
+  <si>
+    <t>folder within the repo</t>
+  </si>
+  <si>
+    <t>Numerical label of the scene category: 1=beach, 2=desert, 3=mountain, 4=road, 5=savannah, 6=seabed, 7=olympic stadium</t>
+  </si>
+  <si>
+    <t>Text label of the scene category</t>
+  </si>
+  <si>
+    <t>scene_instance</t>
+  </si>
+  <si>
+    <t>Numerical label of the scene instance</t>
+  </si>
+  <si>
+    <t>category_str</t>
+  </si>
+  <si>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>desert</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>road</t>
+  </si>
+  <si>
+    <t>savannah</t>
+  </si>
+  <si>
+    <t>seabed</t>
+  </si>
+  <si>
+    <t>olympic stadium</t>
+  </si>
+  <si>
+    <t>1=Natural environment (e.g., beach);0=Artificial or manmade environment (e.g., road)</t>
+  </si>
+  <si>
+    <t>101.png</t>
+  </si>
+  <si>
+    <t>102.png</t>
+  </si>
+  <si>
+    <t>103.png</t>
+  </si>
+  <si>
+    <t>104.png</t>
+  </si>
+  <si>
+    <t>105.png</t>
+  </si>
+  <si>
+    <t>106.png</t>
+  </si>
+  <si>
+    <t>107.png</t>
+  </si>
+  <si>
+    <t>108.png</t>
+  </si>
+  <si>
+    <t>109.png</t>
+  </si>
+  <si>
+    <t>110.png</t>
+  </si>
+  <si>
+    <t>201.png</t>
+  </si>
+  <si>
+    <t>202.png</t>
+  </si>
+  <si>
+    <t>203.png</t>
+  </si>
+  <si>
+    <t>204.png</t>
+  </si>
+  <si>
+    <t>205.png</t>
+  </si>
+  <si>
+    <t>206.png</t>
+  </si>
+  <si>
+    <t>207.png</t>
+  </si>
+  <si>
+    <t>208.png</t>
+  </si>
+  <si>
+    <t>209.png</t>
+  </si>
+  <si>
+    <t>210.png</t>
+  </si>
+  <si>
+    <t>211.png</t>
+  </si>
+  <si>
+    <t>212.png</t>
+  </si>
+  <si>
+    <t>213.png</t>
+  </si>
+  <si>
+    <t>301.png</t>
+  </si>
+  <si>
+    <t>302.png</t>
+  </si>
+  <si>
+    <t>303.png</t>
+  </si>
+  <si>
+    <t>304.png</t>
+  </si>
+  <si>
+    <t>305.png</t>
+  </si>
+  <si>
+    <t>306.png</t>
+  </si>
+  <si>
+    <t>307.png</t>
+  </si>
+  <si>
+    <t>308.png</t>
+  </si>
+  <si>
+    <t>309.png</t>
+  </si>
+  <si>
+    <t>310.png</t>
+  </si>
+  <si>
+    <t>311.png</t>
+  </si>
+  <si>
+    <t>312.png</t>
+  </si>
+  <si>
+    <t>313.png</t>
+  </si>
+  <si>
+    <t>314.png</t>
+  </si>
+  <si>
+    <t>401.png</t>
+  </si>
+  <si>
+    <t>402.png</t>
+  </si>
+  <si>
+    <t>403.png</t>
+  </si>
+  <si>
+    <t>404.png</t>
+  </si>
+  <si>
+    <t>405.png</t>
+  </si>
+  <si>
+    <t>406.png</t>
+  </si>
+  <si>
+    <t>407.png</t>
+  </si>
+  <si>
+    <t>408.png</t>
+  </si>
+  <si>
+    <t>409.png</t>
+  </si>
+  <si>
+    <t>410.png</t>
+  </si>
+  <si>
+    <t>411.png</t>
+  </si>
+  <si>
+    <t>501.png</t>
+  </si>
+  <si>
+    <t>502.png</t>
+  </si>
+  <si>
+    <t>503.png</t>
+  </si>
+  <si>
+    <t>504.png</t>
+  </si>
+  <si>
+    <t>505.png</t>
+  </si>
+  <si>
+    <t>506.png</t>
+  </si>
+  <si>
+    <t>507.png</t>
+  </si>
+  <si>
+    <t>508.png</t>
+  </si>
+  <si>
+    <t>509.png</t>
+  </si>
+  <si>
+    <t>510.png</t>
+  </si>
+  <si>
+    <t>511.png</t>
+  </si>
+  <si>
+    <t>512.png</t>
+  </si>
+  <si>
+    <t>513.png</t>
+  </si>
+  <si>
+    <t>514.png</t>
+  </si>
+  <si>
+    <t>515.png</t>
+  </si>
+  <si>
+    <t>516.png</t>
+  </si>
+  <si>
+    <t>517.png</t>
+  </si>
+  <si>
+    <t>518.png</t>
+  </si>
+  <si>
+    <t>519.png</t>
+  </si>
+  <si>
+    <t>601.png</t>
+  </si>
+  <si>
+    <t>602.png</t>
+  </si>
+  <si>
+    <t>603.png</t>
+  </si>
+  <si>
+    <t>604.png</t>
+  </si>
+  <si>
+    <t>605.png</t>
+  </si>
+  <si>
+    <t>606.png</t>
+  </si>
+  <si>
+    <t>607.png</t>
+  </si>
+  <si>
+    <t>608.png</t>
+  </si>
+  <si>
+    <t>609.png</t>
+  </si>
+  <si>
+    <t>610.png</t>
+  </si>
+  <si>
+    <t>611.png</t>
+  </si>
+  <si>
+    <t>612.png</t>
+  </si>
+  <si>
+    <t>613.png</t>
+  </si>
+  <si>
+    <t>614.png</t>
+  </si>
+  <si>
+    <t>701.png</t>
+  </si>
+  <si>
+    <t>702.png</t>
+  </si>
+  <si>
+    <t>703.png</t>
+  </si>
+  <si>
+    <t>704.png</t>
+  </si>
+  <si>
+    <t>705.png</t>
+  </si>
+  <si>
+    <t>706.png</t>
+  </si>
+  <si>
+    <t>707.png</t>
+  </si>
+  <si>
+    <t>708.png</t>
+  </si>
+  <si>
+    <t>709.png</t>
+  </si>
+  <si>
+    <t>710.png</t>
+  </si>
+  <si>
+    <t>711.png</t>
+  </si>
+  <si>
+    <t>712.png</t>
+  </si>
+  <si>
+    <t>713.png</t>
+  </si>
+  <si>
+    <t>objects</t>
+  </si>
+  <si>
+    <t>object_instance</t>
+  </si>
+  <si>
+    <t>Numerical label of the object instance</t>
+  </si>
+  <si>
+    <t>Name of the file. Names are composed of a category_num + instance + file format</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,13 +621,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,14 +656,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -108,7 +719,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -140,9 +751,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -174,6 +803,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -349,93 +996,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
-        <v>26</v>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -445,27 +1137,3742 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2">
+        <f>VALUE(LEFT(A2,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(C2,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>beach</v>
+      </c>
+      <c r="E2" t="str">
+        <f>MID(A2,2,FIND(".",A2)-2)</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>IF(OR(D2="road",D2="olympic stadium"),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">VALUE(LEFT(A3,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(C3,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>beach</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="1">MID(A3,2,FIND(".",A3)-2)</f>
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="2">IF(OR(D3="road",D3="olympic stadium"),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(C4,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>beach</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(C5,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>beach</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(C6,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>beach</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(C7,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>beach</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(C8,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>beach</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(C9,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>beach</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(C10,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>beach</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP(C11,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>beach</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D12" t="str">
+        <f>VLOOKUP(C12,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D13" t="str">
+        <f>VLOOKUP(C13,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D14" t="str">
+        <f>VLOOKUP(C14,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D15" t="str">
+        <f>VLOOKUP(C15,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D16" t="str">
+        <f>VLOOKUP(C16,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D17" t="str">
+        <f>VLOOKUP(C17,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D18" t="str">
+        <f>VLOOKUP(C18,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D19" t="str">
+        <f>VLOOKUP(C19,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D20" t="str">
+        <f>VLOOKUP(C20,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D21" t="str">
+        <f>VLOOKUP(C21,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D22" t="str">
+        <f>VLOOKUP(C22,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D23" t="str">
+        <f>VLOOKUP(C23,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D24" t="str">
+        <f>VLOOKUP(C24,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D25" t="str">
+        <f>VLOOKUP(C25,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D26" t="str">
+        <f>VLOOKUP(C26,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D27" t="str">
+        <f>VLOOKUP(C27,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D28" t="str">
+        <f>VLOOKUP(C28,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D29" t="str">
+        <f>VLOOKUP(C29,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D30" t="str">
+        <f>VLOOKUP(C30,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D31" t="str">
+        <f>VLOOKUP(C31,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D32" t="str">
+        <f>VLOOKUP(C32,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D33" t="str">
+        <f>VLOOKUP(C33,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>road</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D34" t="str">
+        <f>VLOOKUP(C34,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>road</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D35" t="str">
+        <f>VLOOKUP(C35,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>road</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D36" t="str">
+        <f>VLOOKUP(C36,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>road</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D37" t="str">
+        <f>VLOOKUP(C37,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>road</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D38" t="str">
+        <f>VLOOKUP(C38,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>road</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D39" t="str">
+        <f>VLOOKUP(C39,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>road</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D40" t="str">
+        <f>VLOOKUP(C40,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>road</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D41" t="str">
+        <f>VLOOKUP(C41,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>road</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D42" t="str">
+        <f>VLOOKUP(C42,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>road</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D43" t="str">
+        <f>VLOOKUP(C43,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D44" t="str">
+        <f>VLOOKUP(C44,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D45" t="str">
+        <f>VLOOKUP(C45,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D46" t="str">
+        <f>VLOOKUP(C46,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D47" t="str">
+        <f>VLOOKUP(C47,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D48" t="str">
+        <f>VLOOKUP(C48,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D49" t="str">
+        <f>VLOOKUP(C49,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D50" t="str">
+        <f>VLOOKUP(C50,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D51" t="str">
+        <f>VLOOKUP(C51,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D52" t="str">
+        <f>VLOOKUP(C52,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D53" t="str">
+        <f>VLOOKUP(C53,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D54" t="str">
+        <f>VLOOKUP(C54,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D55" t="str">
+        <f>VLOOKUP(C55,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D56" t="str">
+        <f>VLOOKUP(C56,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D57" t="str">
+        <f>VLOOKUP(C57,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D58" t="str">
+        <f>VLOOKUP(C58,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D59" t="str">
+        <f>VLOOKUP(C59,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D60" t="str">
+        <f>VLOOKUP(C60,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D61" t="str">
+        <f>VLOOKUP(C61,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D62" t="str">
+        <f>VLOOKUP(C62,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D63" t="str">
+        <f>VLOOKUP(C63,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D64" t="str">
+        <f>VLOOKUP(C64,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D65" t="str">
+        <f>VLOOKUP(C65,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D66" t="str">
+        <f>VLOOKUP(C66,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C74" si="3">VALUE(LEFT(A67,1))</f>
+        <v>7</v>
+      </c>
+      <c r="D67" t="str">
+        <f>VLOOKUP(C67,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E74" si="4">MID(A67,2,FIND(".",A67)-2)</f>
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F74" si="5">IF(OR(D67="road",D67="olympic stadium"),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D68" t="str">
+        <f>VLOOKUP(C68,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D69" t="str">
+        <f>VLOOKUP(C69,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D70" t="str">
+        <f>VLOOKUP(C70,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D71" t="str">
+        <f>VLOOKUP(C71,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D72" t="str">
+        <f>VLOOKUP(C72,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D73" t="str">
+        <f>VLOOKUP(C73,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D74" t="str">
+        <f>VLOOKUP(C74,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2">
+        <f>VALUE(LEFT(A2,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(C2,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>beach</v>
+      </c>
+      <c r="E2" t="str">
+        <f>MID(A2,2,FIND(".",A2)-2)</f>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">VALUE(LEFT(A3,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(C3,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>beach</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="1">MID(A3,2,FIND(".",A3)-2)</f>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(C4,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>beach</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(C5,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>beach</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(C6,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>beach</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(C7,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>beach</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(C8,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>beach</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(C9,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>beach</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(C10,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>beach</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP(C11,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>beach</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D12" t="str">
+        <f>VLOOKUP(C12,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D13" t="str">
+        <f>VLOOKUP(C13,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D14" t="str">
+        <f>VLOOKUP(C14,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D15" t="str">
+        <f>VLOOKUP(C15,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D16" t="str">
+        <f>VLOOKUP(C16,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D17" t="str">
+        <f>VLOOKUP(C17,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D18" t="str">
+        <f>VLOOKUP(C18,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D19" t="str">
+        <f>VLOOKUP(C19,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D20" t="str">
+        <f>VLOOKUP(C20,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D21" t="str">
+        <f>VLOOKUP(C21,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D22" t="str">
+        <f>VLOOKUP(C22,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D23" t="str">
+        <f>VLOOKUP(C23,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D24" t="str">
+        <f>VLOOKUP(C24,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>desert</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D25" t="str">
+        <f>VLOOKUP(C25,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D26" t="str">
+        <f>VLOOKUP(C26,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D27" t="str">
+        <f>VLOOKUP(C27,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D28" t="str">
+        <f>VLOOKUP(C28,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D29" t="str">
+        <f>VLOOKUP(C29,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D30" t="str">
+        <f>VLOOKUP(C30,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D31" t="str">
+        <f>VLOOKUP(C31,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D32" t="str">
+        <f>VLOOKUP(C32,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D33" t="str">
+        <f>VLOOKUP(C33,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D34" t="str">
+        <f>VLOOKUP(C34,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D35" t="str">
+        <f>VLOOKUP(C35,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D36" t="str">
+        <f>VLOOKUP(C36,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D37" t="str">
+        <f>VLOOKUP(C37,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D38" t="str">
+        <f>VLOOKUP(C38,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>mountain</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D39" t="str">
+        <f>VLOOKUP(C39,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>road</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D40" t="str">
+        <f>VLOOKUP(C40,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>road</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" t="s">
+        <v>189</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D41" t="str">
+        <f>VLOOKUP(C41,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>road</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D42" t="str">
+        <f>VLOOKUP(C42,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>road</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D43" t="str">
+        <f>VLOOKUP(C43,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>road</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D44" t="str">
+        <f>VLOOKUP(C44,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>road</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="1"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D45" t="str">
+        <f>VLOOKUP(C45,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>road</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D46" t="str">
+        <f>VLOOKUP(C46,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>road</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="1"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D47" t="str">
+        <f>VLOOKUP(C47,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>road</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="1"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D48" t="str">
+        <f>VLOOKUP(C48,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>road</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D49" t="str">
+        <f>VLOOKUP(C49,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>road</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D50" t="str">
+        <f>VLOOKUP(C50,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D51" t="str">
+        <f>VLOOKUP(C51,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D52" t="str">
+        <f>VLOOKUP(C52,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D53" t="str">
+        <f>VLOOKUP(C53,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="1"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D54" t="str">
+        <f>VLOOKUP(C54,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="1"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D55" t="str">
+        <f>VLOOKUP(C55,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="1"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D56" t="str">
+        <f>VLOOKUP(C56,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="1"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D57" t="str">
+        <f>VLOOKUP(C57,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="1"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D58" t="str">
+        <f>VLOOKUP(C58,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="1"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D59" t="str">
+        <f>VLOOKUP(C59,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D60" t="str">
+        <f>VLOOKUP(C60,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D61" t="str">
+        <f>VLOOKUP(C61,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" t="s">
+        <v>189</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D62" t="str">
+        <f>VLOOKUP(C62,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D63" t="str">
+        <f>VLOOKUP(C63,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D64" t="str">
+        <f>VLOOKUP(C64,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D65" t="str">
+        <f>VLOOKUP(C65,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D66" t="str">
+        <f>VLOOKUP(C66,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C96" si="2">VALUE(LEFT(A67,1))</f>
+        <v>5</v>
+      </c>
+      <c r="D67" t="str">
+        <f>VLOOKUP(C67,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E96" si="3">MID(A67,2,FIND(".",A67)-2)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D68" t="str">
+        <f>VLOOKUP(C68,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>savannah</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D69" t="str">
+        <f>VLOOKUP(C69,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="3"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D70" t="str">
+        <f>VLOOKUP(C70,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="3"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D71" t="str">
+        <f>VLOOKUP(C71,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="3"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D72" t="str">
+        <f>VLOOKUP(C72,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="3"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>166</v>
+      </c>
+      <c r="B73" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D73" t="str">
+        <f>VLOOKUP(C73,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="3"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" t="s">
+        <v>189</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D74" t="str">
+        <f>VLOOKUP(C74,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" t="s">
+        <v>189</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D75" t="str">
+        <f>VLOOKUP(C75,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" t="s">
+        <v>189</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D76" t="str">
+        <f>VLOOKUP(C76,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="3"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" t="s">
+        <v>189</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D77" t="str">
+        <f>VLOOKUP(C77,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="3"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D78" t="str">
+        <f>VLOOKUP(C78,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D79" t="str">
+        <f>VLOOKUP(C79,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" t="s">
+        <v>189</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D80" t="str">
+        <f>VLOOKUP(C80,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D81" t="str">
+        <f>VLOOKUP(C81,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>175</v>
+      </c>
+      <c r="B82" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D82" t="str">
+        <f>VLOOKUP(C82,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>seabed</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>176</v>
+      </c>
+      <c r="B83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D83" t="str">
+        <f>VLOOKUP(C83,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="3"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>177</v>
+      </c>
+      <c r="B84" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D84" t="str">
+        <f>VLOOKUP(C84,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="3"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>178</v>
+      </c>
+      <c r="B85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D85" t="str">
+        <f>VLOOKUP(C85,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="3"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>179</v>
+      </c>
+      <c r="B86" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D86" t="str">
+        <f>VLOOKUP(C86,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="3"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D87" t="str">
+        <f>VLOOKUP(C87,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="3"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D88" t="str">
+        <f>VLOOKUP(C88,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D89" t="str">
+        <f>VLOOKUP(C89,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D90" t="str">
+        <f>VLOOKUP(C90,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="3"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D91" t="str">
+        <f>VLOOKUP(C91,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="3"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D92" t="str">
+        <f>VLOOKUP(C92,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D93" t="str">
+        <f>VLOOKUP(C93,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D94" t="str">
+        <f>VLOOKUP(C94,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D95" t="str">
+        <f>VLOOKUP(C95,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>olympic stadium</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>75</v>
+      </c>
+      <c r="B96" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D96" t="e">
+        <f>VLOOKUP(C96,Glossary!A$18:B$24,2,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="3"/>
+        <v>ames</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FCED73-B6C0-480E-AEC0-89C858312ACB}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ecos_summary_table.xlsx
+++ b/ecos_summary_table.xlsx
@@ -3,15 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E82EBD-1BA5-4F25-A7A7-D5A6FDA3CDD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDB1919-799C-47C0-AB82-8872A820CBA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="3" r:id="rId1"/>
     <sheet name="Scenes" sheetId="1" r:id="rId2"/>
     <sheet name="Object" sheetId="2" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="195">
   <si>
     <t>filename</t>
   </si>
@@ -255,9 +254,6 @@
     <t>79.jpeg</t>
   </si>
   <si>
-    <t>names.txt</t>
-  </si>
-  <si>
     <t>folder</t>
   </si>
   <si>
@@ -267,9 +263,6 @@
     <t>category_num</t>
   </si>
   <si>
-    <t>Scenes</t>
-  </si>
-  <si>
     <t>folder within the repo</t>
   </si>
   <si>
@@ -607,6 +600,18 @@
   </si>
   <si>
     <t>Name of the file. Names are composed of a category_num + instance + file format</t>
+  </si>
+  <si>
+    <t>animate?</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>1=animate;0=inanimate. It mostly refers to whether the object can move or not</t>
   </si>
 </sst>
 </file>
@@ -630,7 +635,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,6 +645,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,9 +667,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -999,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,69 +1022,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>190</v>
+      <c r="A8" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="B8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>191</v>
+      </c>
+      <c r="B9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1079,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1087,7 +1111,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1095,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1103,7 +1127,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1111,7 +1135,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1119,7 +1143,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1127,7 +1151,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1141,7 +1165,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1176,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2">
         <f>VALUE(LEFT(A2,1))</f>
@@ -1200,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" si="0">VALUE(LEFT(A3,1))</f>
@@ -1224,7 +1248,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -1248,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -1272,7 +1296,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -1296,7 +1320,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -1320,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -1344,7 +1368,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -1368,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -1392,7 +1416,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -1416,7 +1440,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -1440,7 +1464,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -1464,7 +1488,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -1488,7 +1512,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -1512,7 +1536,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -1536,7 +1560,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -1560,7 +1584,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -1584,7 +1608,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -1608,7 +1632,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -1632,7 +1656,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -1656,7 +1680,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -1680,7 +1704,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -1704,7 +1728,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -1728,7 +1752,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -1752,7 +1776,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -1776,7 +1800,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -1800,7 +1824,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -1824,7 +1848,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -1848,7 +1872,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -1872,7 +1896,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -1896,7 +1920,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -1920,7 +1944,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -1944,7 +1968,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -1968,7 +1992,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -1992,7 +2016,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -2016,7 +2040,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
@@ -2040,7 +2064,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
@@ -2064,7 +2088,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
@@ -2088,7 +2112,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
@@ -2112,7 +2136,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
@@ -2136,7 +2160,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
@@ -2160,7 +2184,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
@@ -2184,7 +2208,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
@@ -2208,7 +2232,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
@@ -2232,7 +2256,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
@@ -2256,7 +2280,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
@@ -2280,7 +2304,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
@@ -2304,7 +2328,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
@@ -2328,7 +2352,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
@@ -2352,7 +2376,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -2376,7 +2400,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
@@ -2400,7 +2424,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
@@ -2424,7 +2448,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
@@ -2448,7 +2472,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
@@ -2472,7 +2496,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
@@ -2496,7 +2520,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
@@ -2520,7 +2544,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
@@ -2544,7 +2568,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
@@ -2568,7 +2592,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
@@ -2592,7 +2616,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
@@ -2616,7 +2640,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
@@ -2640,7 +2664,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
@@ -2664,7 +2688,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
@@ -2688,7 +2712,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
@@ -2712,7 +2736,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
@@ -2736,7 +2760,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C74" si="3">VALUE(LEFT(A67,1))</f>
@@ -2760,7 +2784,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68">
         <f t="shared" si="3"/>
@@ -2784,7 +2808,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69">
         <f t="shared" si="3"/>
@@ -2808,7 +2832,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70">
         <f t="shared" si="3"/>
@@ -2832,7 +2856,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71">
         <f t="shared" si="3"/>
@@ -2856,7 +2880,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72">
         <f t="shared" si="3"/>
@@ -2880,7 +2904,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C73">
         <f t="shared" si="3"/>
@@ -2904,7 +2928,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74">
         <f t="shared" si="3"/>
@@ -2931,40 +2955,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2">
         <f>VALUE(LEFT(A2,1))</f>
@@ -2978,13 +3005,19 @@
         <f>MID(A2,2,FIND(".",A2)-2)</f>
         <v>01</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" si="0">VALUE(LEFT(A3,1))</f>
@@ -2998,13 +3031,19 @@
         <f t="shared" ref="E3:E66" si="1">MID(A3,2,FIND(".",A3)-2)</f>
         <v>02</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -3018,13 +3057,19 @@
         <f t="shared" si="1"/>
         <v>03</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -3038,13 +3083,19 @@
         <f t="shared" si="1"/>
         <v>04</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -3058,13 +3109,19 @@
         <f t="shared" si="1"/>
         <v>05</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -3078,13 +3135,19 @@
         <f t="shared" si="1"/>
         <v>06</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -3098,13 +3161,19 @@
         <f t="shared" si="1"/>
         <v>07</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -3118,13 +3187,19 @@
         <f t="shared" si="1"/>
         <v>08</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -3138,13 +3213,19 @@
         <f t="shared" si="1"/>
         <v>09</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -3158,13 +3239,19 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -3178,13 +3265,19 @@
         <f t="shared" si="1"/>
         <v>01</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -3198,13 +3291,19 @@
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -3218,13 +3317,19 @@
         <f t="shared" si="1"/>
         <v>03</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -3238,13 +3343,19 @@
         <f t="shared" si="1"/>
         <v>04</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -3258,13 +3369,19 @@
         <f t="shared" si="1"/>
         <v>05</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -3278,13 +3395,19 @@
         <f t="shared" si="1"/>
         <v>06</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -3298,13 +3421,19 @@
         <f t="shared" si="1"/>
         <v>07</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -3318,13 +3447,19 @@
         <f t="shared" si="1"/>
         <v>08</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -3338,13 +3473,19 @@
         <f t="shared" si="1"/>
         <v>09</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -3358,13 +3499,19 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -3378,13 +3525,19 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -3398,13 +3551,19 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -3418,13 +3577,19 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -3438,13 +3603,19 @@
         <f t="shared" si="1"/>
         <v>01</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -3458,13 +3629,19 @@
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -3478,13 +3655,19 @@
         <f t="shared" si="1"/>
         <v>03</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -3498,13 +3681,19 @@
         <f t="shared" si="1"/>
         <v>04</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -3518,13 +3707,19 @@
         <f t="shared" si="1"/>
         <v>05</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -3538,13 +3733,19 @@
         <f t="shared" si="1"/>
         <v>06</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -3558,13 +3759,19 @@
         <f t="shared" si="1"/>
         <v>07</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -3578,13 +3785,19 @@
         <f t="shared" si="1"/>
         <v>08</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -3598,13 +3811,19 @@
         <f t="shared" si="1"/>
         <v>09</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -3618,13 +3837,19 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -3638,13 +3863,19 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -3658,13 +3889,19 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
@@ -3678,13 +3915,19 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
@@ -3698,13 +3941,19 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
@@ -3718,13 +3967,19 @@
         <f t="shared" si="1"/>
         <v>01</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B40" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
@@ -3738,13 +3993,19 @@
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
@@ -3758,13 +4019,19 @@
         <f t="shared" si="1"/>
         <v>03</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
@@ -3778,13 +4045,19 @@
         <f t="shared" si="1"/>
         <v>04</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
@@ -3798,13 +4071,19 @@
         <f t="shared" si="1"/>
         <v>05</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
@@ -3818,13 +4097,19 @@
         <f t="shared" si="1"/>
         <v>06</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B45" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
@@ -3838,13 +4123,19 @@
         <f t="shared" si="1"/>
         <v>07</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
@@ -3858,13 +4149,19 @@
         <f t="shared" si="1"/>
         <v>08</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
@@ -3878,13 +4175,19 @@
         <f t="shared" si="1"/>
         <v>09</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
@@ -3898,13 +4201,19 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
@@ -3918,13 +4227,19 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
@@ -3938,13 +4253,19 @@
         <f t="shared" si="1"/>
         <v>01</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -3958,13 +4279,19 @@
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B52" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
@@ -3978,13 +4305,19 @@
         <f t="shared" si="1"/>
         <v>03</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
@@ -3998,13 +4331,19 @@
         <f t="shared" si="1"/>
         <v>04</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
@@ -4018,13 +4357,19 @@
         <f t="shared" si="1"/>
         <v>05</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
@@ -4038,13 +4383,19 @@
         <f t="shared" si="1"/>
         <v>06</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B56" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
@@ -4058,13 +4409,19 @@
         <f t="shared" si="1"/>
         <v>07</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
@@ -4078,13 +4435,19 @@
         <f t="shared" si="1"/>
         <v>08</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
@@ -4098,13 +4461,19 @@
         <f t="shared" si="1"/>
         <v>09</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B59" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
@@ -4118,13 +4487,19 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
@@ -4138,13 +4513,19 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B61" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
@@ -4158,13 +4539,19 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
@@ -4178,13 +4565,19 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B63" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
@@ -4198,13 +4591,19 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
@@ -4218,13 +4617,19 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B65" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
@@ -4238,13 +4643,19 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
@@ -4258,13 +4669,19 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B67" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C96" si="2">VALUE(LEFT(A67,1))</f>
@@ -4278,13 +4695,19 @@
         <f t="shared" ref="E67:E96" si="3">MID(A67,2,FIND(".",A67)-2)</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B68" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C68">
         <f t="shared" si="2"/>
@@ -4298,13 +4721,19 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
@@ -4318,13 +4747,19 @@
         <f t="shared" si="3"/>
         <v>01</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
@@ -4338,13 +4773,19 @@
         <f t="shared" si="3"/>
         <v>02</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B71" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
@@ -4358,13 +4799,19 @@
         <f t="shared" si="3"/>
         <v>03</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
@@ -4378,13 +4825,19 @@
         <f t="shared" si="3"/>
         <v>04</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C73">
         <f t="shared" si="2"/>
@@ -4398,13 +4851,19 @@
         <f t="shared" si="3"/>
         <v>05</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C74">
         <f t="shared" si="2"/>
@@ -4418,13 +4877,19 @@
         <f t="shared" si="3"/>
         <v>06</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B75" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C75">
         <f t="shared" si="2"/>
@@ -4438,13 +4903,19 @@
         <f t="shared" si="3"/>
         <v>07</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B76" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C76">
         <f t="shared" si="2"/>
@@ -4458,13 +4929,19 @@
         <f t="shared" si="3"/>
         <v>08</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B77" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C77">
         <f t="shared" si="2"/>
@@ -4478,13 +4955,19 @@
         <f t="shared" si="3"/>
         <v>09</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B78" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C78">
         <f t="shared" si="2"/>
@@ -4498,13 +4981,19 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B79" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C79">
         <f t="shared" si="2"/>
@@ -4518,13 +5007,19 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C80">
         <f t="shared" si="2"/>
@@ -4538,13 +5033,19 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B81" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C81">
         <f t="shared" si="2"/>
@@ -4558,13 +5059,19 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C82">
         <f t="shared" si="2"/>
@@ -4578,13 +5085,19 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B83" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C83">
         <f t="shared" si="2"/>
@@ -4598,13 +5111,19 @@
         <f t="shared" si="3"/>
         <v>01</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B84" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C84">
         <f t="shared" si="2"/>
@@ -4618,13 +5137,19 @@
         <f t="shared" si="3"/>
         <v>02</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C85">
         <f t="shared" si="2"/>
@@ -4638,13 +5163,19 @@
         <f t="shared" si="3"/>
         <v>03</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B86" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C86">
         <f t="shared" si="2"/>
@@ -4658,13 +5189,19 @@
         <f t="shared" si="3"/>
         <v>04</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B87" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C87">
         <f t="shared" si="2"/>
@@ -4678,13 +5215,19 @@
         <f t="shared" si="3"/>
         <v>05</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B88" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C88">
         <f t="shared" si="2"/>
@@ -4698,13 +5241,19 @@
         <f t="shared" si="3"/>
         <v>06</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C89">
         <f t="shared" si="2"/>
@@ -4718,13 +5267,19 @@
         <f t="shared" si="3"/>
         <v>07</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C90">
         <f t="shared" si="2"/>
@@ -4738,13 +5293,19 @@
         <f t="shared" si="3"/>
         <v>08</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C91">
         <f t="shared" si="2"/>
@@ -4758,13 +5319,19 @@
         <f t="shared" si="3"/>
         <v>09</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B92" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C92">
         <f t="shared" si="2"/>
@@ -4778,13 +5345,19 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B93" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C93">
         <f t="shared" si="2"/>
@@ -4798,13 +5371,19 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C94">
         <f t="shared" si="2"/>
@@ -4818,13 +5397,19 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C95">
         <f t="shared" si="2"/>
@@ -4838,41 +5423,15 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>75</v>
-      </c>
-      <c r="B96" t="s">
-        <v>189</v>
-      </c>
-      <c r="C96" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D96" t="e">
-        <f>VLOOKUP(C96,Glossary!A$18:B$24,2,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E96" t="str">
-        <f t="shared" si="3"/>
-        <v>ames</v>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FCED73-B6C0-480E-AEC0-89C858312ACB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ecos_summary_table.xlsx
+++ b/ecos_summary_table.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDB1919-799C-47C0-AB82-8872A820CBA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15EF75D-C4F2-478D-A2B1-88B8F45AF94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="197">
   <si>
     <t>filename</t>
   </si>
@@ -612,6 +612,12 @@
   </si>
   <si>
     <t>1=animate;0=inanimate. It mostly refers to whether the object can move or not</t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>animate</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2957,8 +2963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2980,10 +2986,10 @@
         <v>188</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4684,7 +4690,7 @@
         <v>187</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C96" si="2">VALUE(LEFT(A67,1))</f>
+        <f t="shared" ref="C67:C95" si="2">VALUE(LEFT(A67,1))</f>
         <v>5</v>
       </c>
       <c r="D67" t="str">
@@ -4692,7 +4698,7 @@
         <v>savannah</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E96" si="3">MID(A67,2,FIND(".",A67)-2)</f>
+        <f t="shared" ref="E67:E95" si="3">MID(A67,2,FIND(".",A67)-2)</f>
         <v>18</v>
       </c>
       <c r="F67">
